--- a/uefa_euro_2016_summary_stats.xlsx
+++ b/uefa_euro_2016_summary_stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="20" windowWidth="28660" windowHeight="16160" tabRatio="949"/>
+    <workbookView xWindow="60" yWindow="20" windowWidth="28660" windowHeight="16160" tabRatio="949" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>16-30</t>
   </si>
@@ -147,7 +147,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -158,6 +158,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -218,7 +224,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -240,6 +246,9 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -259,6 +268,9 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,7 +602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -643,7 +657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -708,11 +724,82 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9">
+        <v>9</v>
+      </c>
+    </row>
     <row r="12" spans="1:9">
+      <c r="A12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
       <c r="G12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
